--- a/biology/Zoologie/Halophryninae/Halophryninae.xlsx
+++ b/biology/Zoologie/Halophryninae/Halophryninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Halophryninae sont une sous-famille de poissons de la famille des Batrachoididae. Elle comprend treize genres acceptés, dont le genre type Halophryne.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 juin 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (9 juin 2021) :
 Allenbatrachus Greenfield, 1997
 Austrobatrachus Smith, 1949
 Barchatus Smith, 1952
@@ -526,9 +540,43 @@
 Halophryne Gill, 1863
 Perulibatrachus Roux &amp; Whitley, 1972
 Riekertia Smith, 1952
-Triathalassothia Fowler, 1943
-Synonymes
-Gymnobatrachus Smith, 1949, synonyme de Batrichthys Smith, 1934
+Triathalassothia Fowler, 1943</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Halophryninae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halophryninae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gymnobatrachus Smith, 1949, synonyme de Batrichthys Smith, 1934
 Halophyrne, synonyme de Halophryne Gill, 1863 (misspelling)
 Parabatrachus Roux, 1971, synonyme de Perulibatrachus Roux &amp; Whitley, 1972
 Pelophiletor Ogilby, 1906, synonyme de Batrachomoeus Ogilby, 1908
@@ -537,31 +585,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Halophryninae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Halophryninae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) D. W. Greenfield, R. Winterbottom et B. B. Collette, « Review of the toadfish genera (Teleostei: Batrachoididae) », San Francisco, CA: California Academy of Sciences. Series 4, vol. 59, no 15,‎ 2008, p. 665–710 (lire en ligne [PDF], consulté le 9 juin 2021).</t>
         </is>
